--- a/tables/tcc-data.xlsx
+++ b/tables/tcc-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/NodeJS/Help-Doctor-API/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7EC58-4DB3-794E-A62D-BF09D70C298D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3A2D1-14F1-5C4B-A347-321FCDFCFF0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="460" windowWidth="25880" windowHeight="21140" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12520" yWindow="460" windowWidth="25880" windowHeight="21140" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROLES" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,17 @@
     <sheet name="USERS_HAS_MEDICAL_CATEGORY" sheetId="9" r:id="rId11"/>
     <sheet name="PRONOUNCER" sheetId="7" r:id="rId12"/>
     <sheet name="APPOINTMENT" sheetId="10" r:id="rId13"/>
+    <sheet name="TRAUMA" sheetId="14" r:id="rId14"/>
+    <sheet name="PAIN" sheetId="15" r:id="rId15"/>
+    <sheet name="APPOINTMENT_HAS_TRAUMAS" sheetId="16" r:id="rId16"/>
+    <sheet name="APPOINTMENT_HAS_PAIN" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="2249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="2258">
   <si>
     <t>name</t>
   </si>
@@ -6779,6 +6783,33 @@
   </si>
   <si>
     <t>salt</t>
+  </si>
+  <si>
+    <t>trauma_name</t>
+  </si>
+  <si>
+    <t>trauma_type</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>traumazão</t>
+  </si>
+  <si>
+    <t>pain_name</t>
+  </si>
+  <si>
+    <t>muita dor</t>
+  </si>
+  <si>
+    <t>appointment_id</t>
+  </si>
+  <si>
+    <t>trauma_id</t>
+  </si>
+  <si>
+    <t>pain_id</t>
   </si>
 </sst>
 </file>
@@ -7267,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36A4A63-8D5F-C44D-BCFD-677D6DD15115}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -7363,7 +7394,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7607,6 +7638,145 @@
       </c>
       <c r="O5" t="s">
         <v>2231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AD9A0B-55D1-5A47-B8E7-BC196079921F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60BCB11-C7D2-9D45-BABB-A41385ACA95A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC213292-336F-6F44-83AA-541AD1677A52}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A3B8FE-1B62-BF4F-8C56-7B37FA869472}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tcc-data.xlsx
+++ b/tables/tcc-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/NodeJS/Help-Doctor-API/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3A2D1-14F1-5C4B-A347-321FCDFCFF0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C15B42-EEBF-474D-92A2-174AB50DD474}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="460" windowWidth="25880" windowHeight="21140" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12520" yWindow="460" windowWidth="25880" windowHeight="21140" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROLES" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="2258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="2259">
   <si>
     <t>name</t>
   </si>
@@ -6810,6 +6810,9 @@
   </si>
   <si>
     <t>pain_id</t>
+  </si>
+  <si>
+    <t>"addressId"</t>
   </si>
 </sst>
 </file>
@@ -7722,7 +7725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC213292-336F-6F44-83AA-541AD1677A52}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7814,7 +7817,7 @@
   <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G85" sqref="A2:G85"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15241,8 +15244,8 @@
   </sheetPr>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -15256,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
